--- a/ONCHO/Entomological survey Survey/Nigeria/2024/delta/ng_oncho_2408_2_river_inspection_del.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/delta/ng_oncho_2408_2_river_inspection_del.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466F548A-0FEB-4B51-9278-DF0582A80F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC96106-432A-4804-9108-CD38B8CD378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="360">
   <si>
     <t>type</t>
   </si>
@@ -532,12 +532,6 @@
     <t>community = ${r_community}</t>
   </si>
   <si>
-    <t>ng_oncho_2408_2_river_inspection_del</t>
-  </si>
-  <si>
-    <t>(Delta) 2. River inspection Form</t>
-  </si>
-  <si>
     <t>DELTA</t>
   </si>
   <si>
@@ -559,9 +553,6 @@
     <t>IKA NORTH EAST</t>
   </si>
   <si>
-    <t>IKA NORTHEAST</t>
-  </si>
-  <si>
     <t>IKA SOUTH</t>
   </si>
   <si>
@@ -586,9 +577,6 @@
     <t>OSHIMILI SOUTH</t>
   </si>
   <si>
-    <t>OSIMILI NORTH</t>
-  </si>
-  <si>
     <t>PATANI</t>
   </si>
   <si>
@@ -1127,6 +1115,12 @@
   </si>
   <si>
     <t>DEL_WAN_M_094</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_2_river_inspection_del_v2</t>
+  </si>
+  <si>
+    <t>(Delta) 2. River inspection Form V2</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1335,6 +1329,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1680,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2512,11 +2510,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD231"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2831,10 +2829,10 @@
         <v>107</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,13 +2844,13 @@
         <v>106</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,13 +2858,13 @@
         <v>106</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,13 +2872,13 @@
         <v>106</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,13 +2886,13 @@
         <v>106</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,13 +2900,13 @@
         <v>106</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,13 +2914,13 @@
         <v>106</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,13 +2928,13 @@
         <v>106</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,13 +2942,13 @@
         <v>106</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,13 +2956,13 @@
         <v>106</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,13 +2970,13 @@
         <v>106</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,13 +2984,13 @@
         <v>106</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,13 +2998,13 @@
         <v>106</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,13 +3012,13 @@
         <v>106</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,13 +3026,13 @@
         <v>106</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,13 +3040,13 @@
         <v>106</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3056,13 +3054,13 @@
         <v>106</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3070,13 +3068,13 @@
         <v>106</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,13 +3082,13 @@
         <v>106</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,1197 +3096,1197 @@
         <v>106</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" t="s">
-        <v>165</v>
-      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>106</v>
+      <c r="A54" t="s">
+        <v>155</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" t="s">
-        <v>165</v>
+        <v>190</v>
+      </c>
+      <c r="E54" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>187</v>
+      <c r="B56" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>188</v>
+      <c r="B57" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>189</v>
+      <c r="B58" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>190</v>
+      <c r="B59" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>191</v>
+      <c r="B60" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>155</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>192</v>
+      <c r="B61" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>193</v>
+      <c r="B62" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="25" t="s">
         <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="25" t="s">
         <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>196</v>
+      <c r="B65" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="E65" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>197</v>
+      <c r="B66" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="E67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>199</v>
-      </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>200</v>
+      <c r="B69" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>201</v>
+      <c r="B70" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>202</v>
+      <c r="B71" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>203</v>
+      <c r="B72" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>201</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>155</v>
       </c>
-      <c r="B73" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>204</v>
+      <c r="B73" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>205</v>
+      <c r="B74" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>204</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>155</v>
       </c>
-      <c r="B75" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>206</v>
+      <c r="B75" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>207</v>
+      <c r="B76" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>208</v>
+      <c r="B77" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="E77" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>209</v>
+      <c r="B78" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>207</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>210</v>
+      <c r="B79" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C81" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>212</v>
-      </c>
       <c r="E81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>213</v>
+      <c r="B82" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>210</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>214</v>
+      <c r="B83" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>212</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>215</v>
+      <c r="B84" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>155</v>
       </c>
-      <c r="B85" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>216</v>
+      <c r="B85" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>217</v>
+      <c r="B86" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>218</v>
+      <c r="B87" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>219</v>
+      <c r="B88" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="E88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>155</v>
       </c>
-      <c r="B89" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>220</v>
+      <c r="B89" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>155</v>
       </c>
-      <c r="B90" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>221</v>
+      <c r="B90" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>220</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="25" t="s">
         <v>222</v>
       </c>
       <c r="E91" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>155</v>
       </c>
-      <c r="B92" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>223</v>
+      <c r="B92" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>224</v>
+      <c r="B93" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="E93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>155</v>
       </c>
-      <c r="B94" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>225</v>
+      <c r="B94" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>223</v>
       </c>
       <c r="E94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>226</v>
+      <c r="B95" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>224</v>
       </c>
       <c r="E95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>155</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>227</v>
+      <c r="B96" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>225</v>
       </c>
       <c r="E96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>228</v>
+      <c r="B97" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>226</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>155</v>
       </c>
-      <c r="B98" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>229</v>
+      <c r="B98" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="E98" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>155</v>
       </c>
-      <c r="B99" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>230</v>
+      <c r="B99" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>227</v>
       </c>
       <c r="E99" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>155</v>
       </c>
-      <c r="B100" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>231</v>
+      <c r="B100" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>229</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>155</v>
       </c>
-      <c r="B101" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>232</v>
+      <c r="B101" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="E101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>155</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>233</v>
+      <c r="B102" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="E102" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>155</v>
       </c>
-      <c r="B103" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>234</v>
+      <c r="B103" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>233</v>
       </c>
       <c r="E103" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>235</v>
+      <c r="B104" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>232</v>
       </c>
       <c r="E104" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>236</v>
+      <c r="B105" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="E105" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>155</v>
       </c>
-      <c r="B106" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>237</v>
+      <c r="B106" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="E106" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>155</v>
       </c>
-      <c r="B107" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>238</v>
+      <c r="B107" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="E107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>155</v>
       </c>
-      <c r="B108" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>239</v>
+      <c r="B108" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="E108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>155</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>240</v>
+      <c r="B109" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="E109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>155</v>
       </c>
-      <c r="B110" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>241</v>
+      <c r="B110" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="E110" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>242</v>
+      <c r="B111" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>241</v>
       </c>
       <c r="E111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>155</v>
       </c>
-      <c r="B112" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>243</v>
+      <c r="B112" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="E112" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>155</v>
       </c>
-      <c r="B113" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>244</v>
+      <c r="B113" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>239</v>
       </c>
       <c r="E113" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>155</v>
       </c>
-      <c r="B114" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>245</v>
+      <c r="B114" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>252</v>
       </c>
       <c r="E114" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>155</v>
       </c>
-      <c r="B115" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>246</v>
+      <c r="B115" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>243</v>
       </c>
       <c r="E115" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>155</v>
       </c>
-      <c r="B116" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>247</v>
+      <c r="B116" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>251</v>
       </c>
       <c r="E116" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>155</v>
       </c>
-      <c r="B117" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>248</v>
+      <c r="B117" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="E117" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>155</v>
       </c>
-      <c r="B118" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>249</v>
+      <c r="B118" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>240</v>
       </c>
       <c r="E118" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>250</v>
+      <c r="B119" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>246</v>
       </c>
       <c r="E119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>155</v>
       </c>
-      <c r="B120" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>251</v>
+      <c r="B120" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>247</v>
       </c>
       <c r="E120" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>155</v>
       </c>
-      <c r="B121" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>252</v>
+      <c r="B121" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>249</v>
       </c>
       <c r="E121" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>155</v>
       </c>
-      <c r="B122" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>253</v>
+      <c r="B122" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>250</v>
       </c>
       <c r="E122" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>155</v>
       </c>
-      <c r="B123" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>254</v>
+      <c r="B123" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>248</v>
       </c>
       <c r="E123" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>155</v>
       </c>
-      <c r="B124" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>255</v>
+      <c r="B124" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>253</v>
       </c>
       <c r="E124" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>155</v>
       </c>
-      <c r="B125" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>256</v>
+      <c r="B125" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>254</v>
       </c>
       <c r="E125" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>155</v>
       </c>
-      <c r="B126" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>257</v>
+      <c r="B126" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>255</v>
       </c>
       <c r="E126" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>155</v>
       </c>
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="25" t="s">
         <v>258</v>
       </c>
       <c r="E127" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>155</v>
       </c>
-      <c r="B128" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>259</v>
+      <c r="B128" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>256</v>
       </c>
       <c r="E128" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>155</v>
       </c>
-      <c r="B129" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>260</v>
+      <c r="B129" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>257</v>
       </c>
       <c r="E129" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>155</v>
       </c>
-      <c r="B130" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>261</v>
+      <c r="B130" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>262</v>
       </c>
       <c r="E130" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
-      <c r="B131" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>262</v>
+      <c r="B131" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="E131" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>155</v>
       </c>
-      <c r="B132" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>263</v>
+      <c r="B132" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>259</v>
       </c>
       <c r="E132" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>155</v>
       </c>
-      <c r="B133" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>264</v>
+      <c r="B133" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>260</v>
       </c>
       <c r="E133" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="21" t="s">
+      <c r="B134" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C137" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>155</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E135" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>155</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E136" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="21"/>
-      <c r="C137" s="21"/>
+      <c r="F137" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4296,13 +4294,13 @@
         <v>38</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4310,13 +4308,13 @@
         <v>38</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,13 +4322,13 @@
         <v>38</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4338,13 +4336,13 @@
         <v>38</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4352,13 +4350,13 @@
         <v>38</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4366,13 +4364,13 @@
         <v>38</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4380,13 +4378,13 @@
         <v>38</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4394,13 +4392,13 @@
         <v>38</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4408,13 +4406,13 @@
         <v>38</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4422,13 +4420,13 @@
         <v>38</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4436,13 +4434,13 @@
         <v>38</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4450,13 +4448,13 @@
         <v>38</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F150" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,13 +4462,13 @@
         <v>38</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F151" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4478,13 +4476,13 @@
         <v>38</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F152" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4492,13 +4490,13 @@
         <v>38</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F153" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4506,13 +4504,13 @@
         <v>38</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F154" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4520,13 +4518,13 @@
         <v>38</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F155" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4534,13 +4532,13 @@
         <v>38</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F156" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4548,13 +4546,13 @@
         <v>38</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F157" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,13 +4560,13 @@
         <v>38</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F158" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4576,13 +4574,13 @@
         <v>38</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F159" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4590,13 +4588,13 @@
         <v>38</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F160" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4604,13 +4602,13 @@
         <v>38</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4618,13 +4616,13 @@
         <v>38</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F162" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4632,13 +4630,13 @@
         <v>38</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F163" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4646,13 +4644,13 @@
         <v>38</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F164" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4660,13 +4658,13 @@
         <v>38</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F165" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4674,13 +4672,13 @@
         <v>38</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F166" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4688,13 +4686,13 @@
         <v>38</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F167" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4702,13 +4700,13 @@
         <v>38</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F168" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4716,13 +4714,13 @@
         <v>38</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F169" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4730,13 +4728,13 @@
         <v>38</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F170" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,13 +4742,13 @@
         <v>38</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F171" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4758,13 +4756,13 @@
         <v>38</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F172" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4772,13 +4770,13 @@
         <v>38</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F173" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,13 +4784,13 @@
         <v>38</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F174" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4800,13 +4798,13 @@
         <v>38</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F175" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4814,13 +4812,13 @@
         <v>38</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F176" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4828,13 +4826,13 @@
         <v>38</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F177" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4842,13 +4840,13 @@
         <v>38</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F178" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4856,13 +4854,13 @@
         <v>38</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F179" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4870,13 +4868,13 @@
         <v>38</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F180" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,13 +4882,13 @@
         <v>38</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F181" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4898,13 +4896,13 @@
         <v>38</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F182" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,13 +4910,13 @@
         <v>38</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F183" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4926,13 +4924,13 @@
         <v>38</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F184" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4940,13 +4938,13 @@
         <v>38</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F185" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4954,13 +4952,13 @@
         <v>38</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F186" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4968,13 +4966,13 @@
         <v>38</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F187" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4982,13 +4980,13 @@
         <v>38</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F188" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4996,13 +4994,13 @@
         <v>38</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F189" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5010,13 +5008,13 @@
         <v>38</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F190" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5024,13 +5022,13 @@
         <v>38</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F191" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5038,13 +5036,13 @@
         <v>38</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F192" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5052,13 +5050,13 @@
         <v>38</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F193" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,13 +5064,13 @@
         <v>38</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F194" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5080,13 +5078,13 @@
         <v>38</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F195" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5094,13 +5092,13 @@
         <v>38</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F196" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5108,13 +5106,13 @@
         <v>38</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F197" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5122,13 +5120,13 @@
         <v>38</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F198" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5136,13 +5134,13 @@
         <v>38</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F199" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5150,13 +5148,13 @@
         <v>38</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F200" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5164,13 +5162,13 @@
         <v>38</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F201" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5178,13 +5176,13 @@
         <v>38</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F202" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5192,13 +5190,13 @@
         <v>38</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F203" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5206,13 +5204,13 @@
         <v>38</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F204" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5220,13 +5218,13 @@
         <v>38</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F205" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5234,13 +5232,13 @@
         <v>38</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F206" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5248,13 +5246,13 @@
         <v>38</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F207" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5262,13 +5260,13 @@
         <v>38</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F208" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5276,13 +5274,13 @@
         <v>38</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F209" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5290,13 +5288,13 @@
         <v>38</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F210" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5304,13 +5302,13 @@
         <v>38</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5318,13 +5316,13 @@
         <v>38</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F212" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,13 +5330,13 @@
         <v>38</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F213" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5346,13 +5344,13 @@
         <v>38</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F214" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5360,13 +5358,13 @@
         <v>38</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F215" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5374,13 +5372,13 @@
         <v>38</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F216" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5388,13 +5386,13 @@
         <v>38</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F217" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5402,13 +5400,13 @@
         <v>38</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F218" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5416,13 +5414,13 @@
         <v>38</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F219" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5430,13 +5428,13 @@
         <v>38</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F220" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5444,13 +5442,13 @@
         <v>38</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F221" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -5458,13 +5456,13 @@
         <v>38</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F222" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5472,13 +5470,13 @@
         <v>38</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F223" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5486,13 +5484,13 @@
         <v>38</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F224" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5500,13 +5498,13 @@
         <v>38</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F225" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5514,13 +5512,13 @@
         <v>38</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F226" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5528,13 +5526,13 @@
         <v>38</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F227" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5542,13 +5540,13 @@
         <v>38</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F228" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5556,41 +5554,13 @@
         <v>38</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F229" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B230" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C230" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="F230" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B231" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C231" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="F231" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5603,7 +5573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5626,14 +5596,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>21</v>
       </c>
     </row>
